--- a/src-tauri/Tubes.xlsx
+++ b/src-tauri/Tubes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t xml:space="preserve"> C</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t xml:space="preserve"> 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10</t>
   </si>
 </sst>
 </file>
@@ -373,7 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -463,6 +475,62 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src-tauri/Tubes.xlsx
+++ b/src-tauri/Tubes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve"> C</t>
   </si>
@@ -22,34 +22,7 @@
     <t xml:space="preserve"> 1</t>
   </si>
   <si>
-    <t>5/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10</t>
+    <t>1/19</t>
   </si>
 </sst>
 </file>
@@ -385,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,132 +378,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src-tauri/Tubes.xlsx
+++ b/src-tauri/Tubes.xlsx
@@ -14,15 +14,285 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="93">
   <si>
     <t xml:space="preserve"> C</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1</t>
-  </si>
-  <si>
-    <t>1/19</t>
+    <t xml:space="preserve"> 9</t>
+  </si>
+  <si>
+    <t>1/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 61</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 62</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 69</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 83</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 88</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 95</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 97</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 98</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99</t>
   </si>
 </sst>
 </file>
@@ -358,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,6 +648,1266 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>76</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>87</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>90</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>91</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
